--- a/C#UebungsPlan.xlsx
+++ b/C#UebungsPlan.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\steffi\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\steffi\Desktop\HTL\CSharpExercises\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -152,11 +152,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="14" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -440,7 +441,7 @@
   <dimension ref="A1:C17"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="J15" sqref="J15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -495,22 +496,22 @@
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A5" s="1">
+      <c r="A5" s="2">
         <v>43037</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="3"/>
+      <c r="C5" s="3"/>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A6" s="4">
+        <v>43038</v>
+      </c>
+      <c r="B6" t="s">
         <v>7</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C6" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A6" s="2">
-        <v>43038</v>
-      </c>
-      <c r="B6" s="3"/>
-      <c r="C6" s="3"/>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A7" s="1">

--- a/C#UebungsPlan.xlsx
+++ b/C#UebungsPlan.xlsx
@@ -441,7 +441,7 @@
   <dimension ref="A1:C17"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="J15" sqref="J15"/>
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -574,57 +574,57 @@
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A13" s="1">
-        <v>43045</v>
+        <v>43048</v>
       </c>
       <c r="B13" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="C13" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A14" s="1">
-        <v>43046</v>
+        <v>43049</v>
       </c>
       <c r="B14" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="C14" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A15" s="1">
-        <v>43047</v>
+        <v>43045</v>
       </c>
       <c r="B15" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="C15" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A16" s="1">
-        <v>43048</v>
+        <v>43046</v>
       </c>
       <c r="B16" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="C16" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A17" s="1">
-        <v>43049</v>
+        <v>43047</v>
       </c>
       <c r="B17" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="C17" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
     </row>
   </sheetData>

--- a/C#UebungsPlan.xlsx
+++ b/C#UebungsPlan.xlsx
@@ -441,7 +441,7 @@
   <dimension ref="A1:C17"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -574,7 +574,7 @@
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A13" s="1">
-        <v>43048</v>
+        <v>43045</v>
       </c>
       <c r="B13" t="s">
         <v>23</v>
@@ -585,7 +585,7 @@
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A14" s="1">
-        <v>43049</v>
+        <v>43046</v>
       </c>
       <c r="B14" t="s">
         <v>25</v>
@@ -596,7 +596,7 @@
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A15" s="1">
-        <v>43045</v>
+        <v>43047</v>
       </c>
       <c r="B15" t="s">
         <v>17</v>
@@ -607,7 +607,7 @@
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A16" s="1">
-        <v>43046</v>
+        <v>43048</v>
       </c>
       <c r="B16" t="s">
         <v>19</v>
@@ -618,7 +618,7 @@
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A17" s="1">
-        <v>43047</v>
+        <v>43049</v>
       </c>
       <c r="B17" t="s">
         <v>21</v>
